--- a/challenge-fiap.xlsx
+++ b/challenge-fiap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eu\Desktop\FIAP-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\FIAP-Challenge-1TDSOE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831DB086-2207-4A3A-88AD-EA9A32E19E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22082EAD-FDC5-488C-A98B-27D241560E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>CHALLENGE FIAP - IFOOD</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>Jonathas dos Santos Pereira Lima</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/file/CmaBqliMWourfIN0TftcI3/Untitled?type=design&amp;node-id=7%3A24&amp;mode=dev&amp;t=93FRWFntOf7Gf7qb-1</t>
+  </si>
+  <si>
+    <t>LINK SIGMA</t>
   </si>
 </sst>
 </file>
@@ -670,10 +676,28 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,24 +710,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,416 +1016,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="10">
         <v>555713</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="3">
         <v>555851</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="10">
         <v>555852</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="6">
         <v>556308</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="7">
         <v>556327</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="5"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="31" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="26" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="26" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="28"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="26" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="30" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="30" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="28"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E42" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="18"/>
-    </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1427,10 +1432,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1438,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>15</v>
@@ -1449,70 +1454,72 @@
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="25"/>
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E53" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="18"/>
-    </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>15</v>
@@ -1521,7 +1528,7 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>15</v>
@@ -1529,68 +1536,77 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G32:G33"/>
   </mergeCells>
   <pageMargins left="0.72" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
